--- a/docs/20_database/db_objects.xlsx
+++ b/docs/20_database/db_objects.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\dvlife\dvlife-api\docs\30_database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\dvlife\dvlife-api\docs\20_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409F7E21-3CA3-4E6C-9EBE-33417524A768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF710628-35E4-4BC2-A47D-AA75DB1FDB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30795" yWindow="690" windowWidth="23475" windowHeight="15450" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4695" yWindow="1170" windowWidth="23475" windowHeight="15150" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_tables" sheetId="1" r:id="rId1"/>
-    <sheet name="stocks" sheetId="7" r:id="rId2"/>
-    <sheet name="exchange_rates" sheetId="5" r:id="rId3"/>
-    <sheet name="dividend_incomes" sheetId="6" r:id="rId4"/>
-    <sheet name="__codes__" sheetId="4" r:id="rId5"/>
+    <sheet name="owners" sheetId="10" r:id="rId2"/>
+    <sheet name="stocks" sheetId="7" r:id="rId3"/>
+    <sheet name="exchange_rates" sheetId="5" r:id="rId4"/>
+    <sheet name="dividend_incomes" sheetId="6" r:id="rId5"/>
+    <sheet name="mgmt_companies" sheetId="9" r:id="rId6"/>
+    <sheet name="assets" sheetId="8" r:id="rId7"/>
+    <sheet name="__codes__" sheetId="4" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="NOTNULL">__codes__!$B$2:$B$5</definedName>
-    <definedName name="型">__codes__!$A$2:$A$18</definedName>
+    <definedName name="型">__codes__!$A$2:$A$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="174">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -269,13 +272,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TIMESTAMP WITH TIME ZONE として扱う</t>
-    <rPh sb="28" eb="29">
-      <t>アツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SERIAL</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -758,6 +754,317 @@
   </si>
   <si>
     <t>foreign_tax_f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資産</t>
+    <rPh sb="0" eb="2">
+      <t>シサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>assets</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>負債</t>
+    <rPh sb="0" eb="2">
+      <t>フサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>liablities</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運用会社</t>
+    <rPh sb="0" eb="4">
+      <t>ウンヨウガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運用会社ID</t>
+    <rPh sb="0" eb="2">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資産ID</t>
+    <rPh sb="0" eb="2">
+      <t>シサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDX1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDX2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDX3</t>
+  </si>
+  <si>
+    <t>IDX4</t>
+  </si>
+  <si>
+    <t>IDX5</t>
+  </si>
+  <si>
+    <t>mgmt_company_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mgmt_company_class</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運用会社区分</t>
+    <rPh sb="0" eb="2">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mgmt_companies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MgmtCompanyClass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基準年月</t>
+    <rPh sb="0" eb="2">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ネンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>asset_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資産クラス</t>
+    <rPh sb="0" eb="2">
+      <t>シサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>asset_class</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AssetClass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金融機関コード</t>
+    <rPh sb="0" eb="2">
+      <t>キンユウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SWIFTコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bank_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>swift_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支店コード</t>
+    <rPh sb="0" eb="2">
+      <t>シテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社名</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社名カナ</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社名EN</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支店名</t>
+    <rPh sb="0" eb="3">
+      <t>シテンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支店名カナ</t>
+    <rPh sb="0" eb="3">
+      <t>シテンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支店名EN</t>
+    <rPh sb="0" eb="3">
+      <t>シテンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>company_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>branch_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>company_name_kana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>company_name_en</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>branch_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>branch_name_kana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>branch_name_en</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MgmtCompanyStatus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資産負債区分</t>
+    <rPh sb="0" eb="2">
+      <t>シサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>asset_liab_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AssetLiabType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所有者</t>
+    <rPh sb="0" eb="3">
+      <t>ショユウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所有者ID</t>
+    <rPh sb="0" eb="3">
+      <t>ショユウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>owner_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>owners</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所有者名</t>
+    <rPh sb="0" eb="3">
+      <t>ショユウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>owner_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1001,12 +1308,62 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFFFFF99"/>
-      <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1286,7 +1643,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="14.25"/>
@@ -1325,14 +1682,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="4">
-        <f>ROW()-3</f>
+        <f t="shared" ref="B4:B14" si="0">ROW()-3</f>
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
@@ -1340,14 +1697,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="4">
-        <f t="shared" ref="B5:B14" si="0">ROW()-3</f>
+        <f>ROW()-3</f>
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -1359,13 +1716,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1373,23 +1730,59 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="C8" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="C9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1424,11 +1817,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06DF27F-DF8F-4489-B51B-478285E1F251}">
-  <dimension ref="A1:N20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDF28A0-2987-4357-B9D1-1A7206EB055D}">
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="N20" sqref="A16:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1439,33 +1832,32 @@
     <col min="4" max="4" width="12.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="24.75" style="3" customWidth="1"/>
-    <col min="7" max="8" width="7.75" style="3" customWidth="1"/>
-    <col min="9" max="10" width="10.875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="37.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="2.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="41" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="7" max="16" width="8.625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="37.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="2" style="2" customWidth="1"/>
+    <col min="19" max="19" width="32.375" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:20">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="14" t="str">
         <f ca="1">_xlfn.XLOOKUP(C2, '01_tables'!D:D, '01_tables'!C:C)</f>
-        <v>銘柄</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>所有者</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="12"/>
       <c r="B2" s="15"/>
       <c r="C2" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>stocks</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="85.5" customHeight="1">
+        <v>owners</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="85.5" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>19</v>
       </c>
@@ -1478,9 +1870,15 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -1506,676 +1904,222 @@
         <v>17</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="2" t="str">
+      <c r="T4" s="2" t="str">
         <f ca="1">"COMMENT ON TABLE dvl." &amp; C2 &amp; " IS '"&amp; C1 &amp; "';"</f>
-        <v>COMMENT ON TABLE dvl.stocks IS '銘柄';</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>COMMENT ON TABLE dvl.owners IS '所有者';</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="8">
+        <f>ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" s="9">
         <v>1</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>82</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="M5" s="2" t="str">
+        <v>81</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q5" s="8"/>
+      <c r="S5" s="2" t="str">
         <f>C5&amp;" "&amp;D5&amp;IF(E5="-","","("&amp;E5&amp;")")&amp;","</f>
-        <v>stock_id SERIAL,</v>
-      </c>
-      <c r="N5" s="2" t="str">
+        <v>owner_id INTEGER,</v>
+      </c>
+      <c r="T5" s="2" t="str">
         <f ca="1">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C5 &amp; " IS '"&amp; B5 &amp; "';"</f>
-        <v>COMMENT ON COLUMN dvl.stocks.stock_id IS '銘柄ID';</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>COMMENT ON COLUMN dvl.owners.owner_id IS '所有者ID';</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="8">
+        <f>ROW()-4</f>
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="9">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>82</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="M6" s="2" t="str">
-        <f t="shared" ref="M6:M19" si="0">C6&amp;" "&amp;D6&amp;IF(E6="-","","("&amp;E6&amp;")")&amp;","</f>
-        <v>ticker VARCHAR(4),</v>
-      </c>
-      <c r="N6" s="2" t="str">
-        <f t="shared" ref="N6:N19" ca="1" si="1">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C6 &amp; " IS '"&amp; B6 &amp; "';"</f>
-        <v>COMMENT ON COLUMN dvl.stocks.ticker IS 'ティッカー';</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="8">
-        <v>3</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="9">
-        <v>200</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="M7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>stock_name VARCHAR(200),</v>
-      </c>
-      <c r="N7" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>COMMENT ON COLUMN dvl.stocks.stock_name IS '銘柄名';</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="9">
-        <v>200</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" s="8"/>
-      <c r="M8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>stock_abbr_name VARCHAR(200),</v>
-      </c>
-      <c r="N8" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>COMMENT ON COLUMN dvl.stocks.stock_abbr_name IS '銘柄名（略称）';</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="8">
-        <v>5</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="M9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>status VARCHAR(1),</v>
-      </c>
-      <c r="N9" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>COMMENT ON COLUMN dvl.stocks.status IS 'ステータス';</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="8">
-        <v>6</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="9">
-        <v>2</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="M10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>country VARCHAR(2),</v>
-      </c>
-      <c r="N10" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>COMMENT ON COLUMN dvl.stocks.country IS '国';</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="8">
-        <v>7</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="9">
-        <v>3</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" s="8"/>
-      <c r="M11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>currency VARCHAR(3),</v>
-      </c>
-      <c r="N11" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>COMMENT ON COLUMN dvl.stocks.currency IS '通貨';</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="8">
-        <v>8</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="9">
-        <v>6</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" s="8"/>
-      <c r="M12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>market_code VARCHAR(6),</v>
-      </c>
-      <c r="N12" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>COMMENT ON COLUMN dvl.stocks.market_code IS '市場コード';</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="8">
-        <v>9</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="M13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>is_etf BOOLEAN,</v>
-      </c>
-      <c r="N13" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>COMMENT ON COLUMN dvl.stocks.is_etf IS 'ETF区分';</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="8">
-        <v>10</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" s="8"/>
-      <c r="M14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sector_1 VARCHAR,</v>
-      </c>
-      <c r="N14" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>COMMENT ON COLUMN dvl.stocks.sector_1 IS 'セクター分類1';</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="8">
-        <v>11</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="M15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sector_2 VARCHAR,</v>
-      </c>
-      <c r="N15" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>COMMENT ON COLUMN dvl.stocks.sector_2 IS 'セクター分類2';</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="8">
-        <v>12</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="9">
-        <v>1</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K16" s="8"/>
-      <c r="M16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>divunit_site_kind VARCHAR(1),</v>
-      </c>
-      <c r="N16" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>COMMENT ON COLUMN dvl.stocks.divunit_site_kind IS '配当単位区分';</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="8">
-        <v>13</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="9">
-        <v>1000</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="M17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>divunit_referred_url VARCHAR(1000),</v>
-      </c>
-      <c r="N17" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>COMMENT ON COLUMN dvl.stocks.divunit_referred_url IS '配当単位取得URL';</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="8">
-        <v>14</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K18" s="8"/>
-      <c r="M18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>updated_at TIMESTAMP WITH TIME ZONE,</v>
-      </c>
-      <c r="N18" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>COMMENT ON COLUMN dvl.stocks.updated_at IS '更新日時';</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="8">
-        <v>15</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="9">
-        <v>10</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K19" s="8"/>
-      <c r="M19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>updated_by VARCHAR(10),</v>
-      </c>
-      <c r="N19" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>COMMENT ON COLUMN dvl.stocks.updated_by IS '更新者';</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="21" t="s">
-        <v>47</v>
+        <v>81</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q6" s="8"/>
+      <c r="S6" s="2" t="str">
+        <f t="shared" ref="S6" si="0">C6&amp;" "&amp;D6&amp;IF(E6="-","","("&amp;E6&amp;")")&amp;","</f>
+        <v>owner_name VARCHAR(100),</v>
+      </c>
+      <c r="T6" s="2" t="str">
+        <f t="shared" ref="T6" ca="1" si="1">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C6 &amp; " IS '"&amp; B6 &amp; "';"</f>
+        <v>COMMENT ON COLUMN dvl.owners.owner_name IS '所有者名';</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A5:P6">
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>A5=""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D19" xr:uid="{5F44D5CD-E801-42D8-B21E-714A2149993E}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D5:D6" xr:uid="{E55F77B8-EEB5-4F65-84E6-C35B9040F141}">
       <formula1>型</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I19" xr:uid="{2DC4C0A9-4D20-4BF0-AB33-2C4C1844B75F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J6 L5:P6" xr:uid="{0E58351E-8C34-4E70-904C-ED013E6D9E96}">
       <formula1>NOTNULL</formula1>
     </dataValidation>
   </dataValidations>
@@ -2185,11 +2129,1104 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06DF27F-DF8F-4489-B51B-478285E1F251}">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="5.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.75" style="3" customWidth="1"/>
+    <col min="7" max="11" width="8.625" style="3" customWidth="1"/>
+    <col min="12" max="16" width="8.625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="37.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="2.25" style="2" customWidth="1"/>
+    <col min="19" max="19" width="41" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="14" t="str">
+        <f ca="1">_xlfn.XLOOKUP(C2, '01_tables'!D:D, '01_tables'!C:C)</f>
+        <v>銘柄</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="12"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16" t="str" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>stocks</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="85.5" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="2" t="str">
+        <f ca="1">"COMMENT ON TABLE dvl." &amp; C2 &amp; " IS '"&amp; C1 &amp; "';"</f>
+        <v>COMMENT ON TABLE dvl.stocks IS '銘柄';</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="8">
+        <f>ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q5" s="8"/>
+      <c r="S5" s="2" t="str">
+        <f>C5&amp;" "&amp;D5&amp;IF(E5="-","","("&amp;E5&amp;")")&amp;","</f>
+        <v>stock_id SERIAL,</v>
+      </c>
+      <c r="T5" s="2" t="str">
+        <f ca="1">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C5 &amp; " IS '"&amp; B5 &amp; "';"</f>
+        <v>COMMENT ON COLUMN dvl.stocks.stock_id IS '銘柄ID';</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="8">
+        <f t="shared" ref="A6:A19" si="0">ROW()-4</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="9">
+        <v>4</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q6" s="8"/>
+      <c r="S6" s="2" t="str">
+        <f t="shared" ref="S6:S19" si="1">C6&amp;" "&amp;D6&amp;IF(E6="-","","("&amp;E6&amp;")")&amp;","</f>
+        <v>ticker VARCHAR(4),</v>
+      </c>
+      <c r="T6" s="2" t="str">
+        <f t="shared" ref="T6:T19" ca="1" si="2">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C6 &amp; " IS '"&amp; B6 &amp; "';"</f>
+        <v>COMMENT ON COLUMN dvl.stocks.ticker IS 'ティッカー';</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="9">
+        <v>200</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="8"/>
+      <c r="S7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>stock_name VARCHAR(200),</v>
+      </c>
+      <c r="T7" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>COMMENT ON COLUMN dvl.stocks.stock_name IS '銘柄名';</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="9">
+        <v>200</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" s="8"/>
+      <c r="S8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>stock_abbr_name VARCHAR(200),</v>
+      </c>
+      <c r="T8" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>COMMENT ON COLUMN dvl.stocks.stock_abbr_name IS '銘柄名（略称）';</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q9" s="8"/>
+      <c r="S9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>status VARCHAR(1),</v>
+      </c>
+      <c r="T9" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>COMMENT ON COLUMN dvl.stocks.status IS 'ステータス';</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" s="8"/>
+      <c r="S10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>country VARCHAR(2),</v>
+      </c>
+      <c r="T10" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>COMMENT ON COLUMN dvl.stocks.country IS '国';</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="9">
+        <v>3</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="S11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>currency VARCHAR(3),</v>
+      </c>
+      <c r="T11" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>COMMENT ON COLUMN dvl.stocks.currency IS '通貨';</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="9">
+        <v>6</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q12" s="8"/>
+      <c r="S12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>market_code VARCHAR(6),</v>
+      </c>
+      <c r="T12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>COMMENT ON COLUMN dvl.stocks.market_code IS '市場コード';</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q13" s="8"/>
+      <c r="S13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>is_etf BOOLEAN,</v>
+      </c>
+      <c r="T13" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>COMMENT ON COLUMN dvl.stocks.is_etf IS 'ETF区分';</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="8"/>
+      <c r="S14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>sector_1 VARCHAR,</v>
+      </c>
+      <c r="T14" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>COMMENT ON COLUMN dvl.stocks.sector_1 IS 'セクター分類1';</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q15" s="8"/>
+      <c r="S15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>sector_2 VARCHAR,</v>
+      </c>
+      <c r="T15" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>COMMENT ON COLUMN dvl.stocks.sector_2 IS 'セクター分類2';</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q16" s="8"/>
+      <c r="S16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>divunit_site_kind VARCHAR(1),</v>
+      </c>
+      <c r="T16" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>COMMENT ON COLUMN dvl.stocks.divunit_site_kind IS '配当単位区分';</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" s="8"/>
+      <c r="S17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>divunit_referred_url VARCHAR(1000),</v>
+      </c>
+      <c r="T17" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>COMMENT ON COLUMN dvl.stocks.divunit_referred_url IS '配当単位取得URL';</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q18" s="8"/>
+      <c r="S18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>updated_at TIMESTAMP WITH TIME ZONE,</v>
+      </c>
+      <c r="T18" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>COMMENT ON COLUMN dvl.stocks.updated_at IS '更新日時';</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="9">
+        <v>10</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q19" s="8"/>
+      <c r="S19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>updated_by VARCHAR(10),</v>
+      </c>
+      <c r="T19" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>COMMENT ON COLUMN dvl.stocks.updated_by IS '更新者';</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P20" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A5:P19">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>A5=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D5:D19" xr:uid="{5F44D5CD-E801-42D8-B21E-714A2149993E}">
+      <formula1>型</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J19 L5:P19" xr:uid="{2DC4C0A9-4D20-4BF0-AB33-2C4C1844B75F}">
+      <formula1>NOTNULL</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7047A089-34A4-4056-B606-481619A3BAC7}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2200,16 +3237,14 @@
     <col min="4" max="4" width="12.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="26.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="3" customWidth="1"/>
-    <col min="9" max="10" width="10.875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="37.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="2.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="26.875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="7" max="16" width="8.625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="37.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="2.25" style="2" customWidth="1"/>
+    <col min="19" max="19" width="26.875" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:20">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -2219,14 +3254,14 @@
         <v>為替レート</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:20">
       <c r="A2" s="12"/>
       <c r="B2" s="15"/>
       <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="85.5" customHeight="1">
+    <row r="3" spans="1:20" ht="85.5" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>19</v>
       </c>
@@ -2239,9 +3274,15 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -2267,21 +3308,40 @@
         <v>17</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="2" t="str">
+      <c r="T4" s="2" t="str">
         <f>"COMMENT ON TABLE dvl." &amp; C2 &amp; " IS '"&amp; C1 &amp; "';"</f>
         <v>COMMENT ON TABLE dvl.exchange_rates IS '為替レート';</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:20">
       <c r="A5" s="8">
+        <f>ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2291,38 +3351,57 @@
         <v>21</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" s="9">
         <v>1</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>82</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="M5" s="2" t="str">
+        <v>81</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q5" s="8"/>
+      <c r="S5" s="2" t="str">
         <f>C5&amp;" "&amp;D5&amp;IF(E5="-","","("&amp;E5&amp;")")&amp;","</f>
         <v>rate_id SERIAL,</v>
       </c>
-      <c r="N5" s="2" t="str">
+      <c r="T5" s="2" t="str">
         <f>"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C5 &amp; " IS '"&amp; B5 &amp; "';"</f>
         <v>COMMENT ON COLUMN dvl.exchange_rates.rate_id IS 'レートID';</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:20">
       <c r="A6" s="8">
+        <f>ROW()-4</f>
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -2332,38 +3411,57 @@
         <v>23</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>82</v>
+        <v>82</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="M6" s="2" t="str">
-        <f t="shared" ref="M6:M19" si="0">C6&amp;" "&amp;D6&amp;IF(E6="-","","("&amp;E6&amp;")")&amp;","</f>
+        <v>81</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q6" s="8"/>
+      <c r="S6" s="2" t="str">
+        <f t="shared" ref="S6:S9" si="0">C6&amp;" "&amp;D6&amp;IF(E6="-","","("&amp;E6&amp;")")&amp;","</f>
         <v>base_date TIMESTAMP WITH TIME ZONE,</v>
       </c>
-      <c r="N6" s="2" t="str">
-        <f t="shared" ref="N6:N19" si="1">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C6 &amp; " IS '"&amp; B6 &amp; "';"</f>
+      <c r="T6" s="2" t="str">
+        <f t="shared" ref="T6:T9" si="1">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C6 &amp; " IS '"&amp; B6 &amp; "';"</f>
         <v>COMMENT ON COLUMN dvl.exchange_rates.base_date IS '基準日';</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:20">
       <c r="A7" s="8">
+        <f>ROW()-4</f>
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2373,7 +3471,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="9">
         <v>3</v>
@@ -2382,36 +3480,55 @@
         <v>25</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>82</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="M7" s="2" t="str">
+        <v>81</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="8"/>
+      <c r="S7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>currency VARCHAR(3),</v>
       </c>
-      <c r="N7" s="2" t="str">
+      <c r="T7" s="2" t="str">
         <f t="shared" si="1"/>
         <v>COMMENT ON COLUMN dvl.exchange_rates.currency IS '通貨コード';</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:20">
       <c r="A8" s="8">
+        <f>ROW()-4</f>
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>28</v>
@@ -2420,36 +3537,55 @@
         <v>3</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>82</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" s="8"/>
-      <c r="M8" s="2" t="str">
+        <v>81</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" s="8"/>
+      <c r="S8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>rate_origin VARCHAR(3),</v>
       </c>
-      <c r="N8" s="2" t="str">
+      <c r="T8" s="2" t="str">
         <f t="shared" si="1"/>
         <v>COMMENT ON COLUMN dvl.exchange_rates.rate_origin IS 'レート区分';</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:20">
       <c r="A9" s="8">
+        <f>ROW()-4</f>
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>7</v>
@@ -2458,75 +3594,116 @@
         <v>30</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>82</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="M9" s="2" t="str">
+        <v>81</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q9" s="8"/>
+      <c r="S9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>rate NUMERIC(7,4),</v>
       </c>
-      <c r="N9" s="2" t="str">
+      <c r="T9" s="2" t="str">
         <f t="shared" si="1"/>
         <v>COMMENT ON COLUMN dvl.exchange_rates.rate IS 'レート';</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:20">
       <c r="A10" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A5:P9">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>A5=""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D9" xr:uid="{21FDD6F0-78C5-496A-BDA3-FD7B7A3D1035}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D5:D9" xr:uid="{21FDD6F0-78C5-496A-BDA3-FD7B7A3D1035}">
       <formula1>型</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I9" xr:uid="{BB822ADC-68CE-4802-BE15-174F9FABD1A4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J9 L5:P9" xr:uid="{BB822ADC-68CE-4802-BE15-174F9FABD1A4}">
       <formula1>NOTNULL</formula1>
     </dataValidation>
   </dataValidations>
@@ -2535,12 +3712,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF91F076-32FE-4EE8-902C-48F9F973E49E}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2551,16 +3728,14 @@
     <col min="4" max="4" width="12.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="24.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="3" customWidth="1"/>
-    <col min="9" max="10" width="10.875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="37.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="2" style="2" customWidth="1"/>
-    <col min="13" max="13" width="32.375" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="7" max="16" width="8.625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="37.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="2" style="2" customWidth="1"/>
+    <col min="19" max="19" width="32.375" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:20">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -2570,7 +3745,7 @@
         <v>配当収入</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:20">
       <c r="A2" s="12"/>
       <c r="B2" s="15"/>
       <c r="C2" s="16" t="str" cm="1">
@@ -2578,7 +3753,7 @@
         <v>dividend_incomes</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="85.5" customHeight="1">
+    <row r="3" spans="1:20" ht="85.5" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>19</v>
       </c>
@@ -2591,9 +3766,15 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -2619,151 +3800,227 @@
         <v>17</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="2" t="str">
+      <c r="T4" s="2" t="str">
         <f ca="1">"COMMENT ON TABLE dvl." &amp; C2 &amp; " IS '"&amp; C1 &amp; "';"</f>
         <v>COMMENT ON TABLE dvl.dividend_incomes IS '配当収入';</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:20">
       <c r="A5" s="8">
+        <f>ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" s="9">
         <v>1</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>82</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="M5" s="2" t="str">
+        <v>81</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q5" s="8"/>
+      <c r="S5" s="2" t="str">
         <f>C5&amp;" "&amp;D5&amp;IF(E5="-","","("&amp;E5&amp;")")&amp;","</f>
         <v>div_income_id SERIAL,</v>
       </c>
-      <c r="N5" s="2" t="str">
+      <c r="T5" s="2" t="str">
         <f ca="1">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C5 &amp; " IS '"&amp; B5 &amp; "';"</f>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.div_income_id IS '配当収入ID';</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:20">
       <c r="A6" s="8">
+        <f>ROW()-4</f>
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>82</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="M6" s="2" t="str">
+        <v>81</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q6" s="8"/>
+      <c r="S6" s="2" t="str">
         <f>C6&amp;" "&amp;D6&amp;IF(E6="-","","("&amp;E6&amp;")")&amp;","</f>
         <v>stock_id INTEGER,</v>
       </c>
-      <c r="N6" s="2" t="str">
+      <c r="T6" s="2" t="str">
         <f ca="1">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C6 &amp; " IS '"&amp; B6 &amp; "';"</f>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.stock_id IS '銘柄ID';</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:20">
       <c r="A7" s="8">
+        <f>ROW()-4</f>
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="D7" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>82</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="M7" s="2" t="str">
-        <f t="shared" ref="M7:M10" si="0">C7&amp;" "&amp;D7&amp;IF(E7="-","","("&amp;E7&amp;")")&amp;","</f>
+        <v>81</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="8"/>
+      <c r="S7" s="2" t="str">
+        <f t="shared" ref="S7:S10" si="0">C7&amp;" "&amp;D7&amp;IF(E7="-","","("&amp;E7&amp;")")&amp;","</f>
         <v>receipt_date TIMESTAMP WITH TIME ZONE,</v>
       </c>
-      <c r="N7" s="2" t="str">
-        <f t="shared" ref="N7:N10" ca="1" si="1">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C7 &amp; " IS '"&amp; B7 &amp; "';"</f>
+      <c r="T7" s="2" t="str">
+        <f t="shared" ref="T7:T10" ca="1" si="1">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C7 &amp; " IS '"&amp; B7 &amp; "';"</f>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.receipt_date IS '受取日';</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:20">
       <c r="A8" s="8">
+        <f>ROW()-4</f>
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>30</v>
@@ -2772,162 +4029,238 @@
         <v>10</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>82</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" s="8"/>
-      <c r="M8" s="2" t="str">
+        <v>81</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" s="8"/>
+      <c r="S8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>receipt_amount NUMERIC(10),</v>
       </c>
-      <c r="N8" s="2" t="str">
+      <c r="T8" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.receipt_amount IS '受取金額';</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:20">
       <c r="A9" s="8">
+        <f>ROW()-4</f>
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="M9" s="2" t="str">
+        <v>82</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q9" s="8"/>
+      <c r="S9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>receipt_amount_f NUMERIC(14,6),</v>
       </c>
-      <c r="N9" s="2" t="str">
+      <c r="T9" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.receipt_amount_f IS '受取金額（外貨）';</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:20">
       <c r="A10" s="8">
+        <f>ROW()-4</f>
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>82</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="M10" s="2" t="str">
+        <v>81</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" s="8"/>
+      <c r="S10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>div_unit NUMERIC(14,6),</v>
       </c>
-      <c r="N10" s="2" t="str">
+      <c r="T10" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.div_unit IS '1株配当額';</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:20">
       <c r="A11" s="8">
+        <f>ROW()-4</f>
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>82</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" s="8"/>
-      <c r="M11" s="2" t="str">
-        <f t="shared" ref="M11:M21" si="2">C11&amp;" "&amp;D11&amp;IF(E11="-","","("&amp;E11&amp;")")&amp;","</f>
+        <v>81</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="S11" s="2" t="str">
+        <f t="shared" ref="S11:S21" si="2">C11&amp;" "&amp;D11&amp;IF(E11="-","","("&amp;E11&amp;")")&amp;","</f>
         <v>quantity INTEGER,</v>
       </c>
-      <c r="N11" s="2" t="str">
-        <f t="shared" ref="N11:N21" ca="1" si="3">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C11 &amp; " IS '"&amp; B11 &amp; "';"</f>
+      <c r="T11" s="2" t="str">
+        <f t="shared" ref="T11:T21" ca="1" si="3">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C11 &amp; " IS '"&amp; B11 &amp; "';"</f>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.quantity IS '保有数';</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:20">
       <c r="A12" s="8">
+        <f>ROW()-4</f>
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>30</v>
@@ -2936,80 +4269,118 @@
         <v>10</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>82</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" s="8"/>
-      <c r="M12" s="2" t="str">
+        <v>81</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q12" s="8"/>
+      <c r="S12" s="2" t="str">
         <f t="shared" si="2"/>
         <v>div_amount NUMERIC(10),</v>
       </c>
-      <c r="N12" s="2" t="str">
+      <c r="T12" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.div_amount IS '配当金額';</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:20">
       <c r="A13" s="8">
+        <f>ROW()-4</f>
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="M13" s="2" t="str">
+        <v>82</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q13" s="8"/>
+      <c r="S13" s="2" t="str">
         <f t="shared" si="2"/>
         <v>div_amount_f NUMERIC(14,6),</v>
       </c>
-      <c r="N13" s="2" t="str">
+      <c r="T13" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.div_amount_f IS '配当金額（外貨）';</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:20">
       <c r="A14" s="8">
+        <f>ROW()-4</f>
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>30</v>
@@ -3018,39 +4389,58 @@
         <v>10</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>82</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" s="8"/>
-      <c r="M14" s="2" t="str">
+        <v>81</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="8"/>
+      <c r="S14" s="2" t="str">
         <f t="shared" si="2"/>
         <v>income_tax NUMERIC(10),</v>
       </c>
-      <c r="N14" s="2" t="str">
+      <c r="T14" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.income_tax IS '所得税';</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:20">
       <c r="A15" s="8">
+        <f>ROW()-4</f>
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>30</v>
@@ -3059,39 +4449,58 @@
         <v>10</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>82</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="M15" s="2" t="str">
+        <v>81</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q15" s="8"/>
+      <c r="S15" s="2" t="str">
         <f t="shared" si="2"/>
         <v>local_tax NUMERIC(10),</v>
       </c>
-      <c r="N15" s="2" t="str">
+      <c r="T15" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.local_tax IS '地方税';</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:20">
       <c r="A16" s="8">
+        <f>ROW()-4</f>
         <v>12</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>30</v>
@@ -3100,203 +4509,298 @@
         <v>10</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K16" s="8"/>
-      <c r="M16" s="2" t="str">
+        <v>82</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q16" s="8"/>
+      <c r="S16" s="2" t="str">
         <f t="shared" si="2"/>
         <v>foreign_tax NUMERIC(10),</v>
       </c>
-      <c r="N16" s="2" t="str">
+      <c r="T16" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.foreign_tax IS '外国源泉徴収税額';</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:20">
       <c r="A17" s="8">
+        <f>ROW()-4</f>
         <v>13</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="M17" s="2" t="str">
+        <v>82</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" s="8"/>
+      <c r="S17" s="2" t="str">
         <f t="shared" si="2"/>
         <v>foreign_tax_f NUMERIC(14,6),</v>
       </c>
-      <c r="N17" s="2" t="str">
+      <c r="T17" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.foreign_tax_f IS '外国源泉徴収税額（外貨）';</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:20">
       <c r="A18" s="8">
+        <f>ROW()-4</f>
         <v>14</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K18" s="8"/>
-      <c r="M18" s="2" t="str">
+        <v>82</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q18" s="8"/>
+      <c r="S18" s="2" t="str">
         <f t="shared" si="2"/>
         <v>report_rate_id INTEGER,</v>
       </c>
-      <c r="N18" s="2" t="str">
+      <c r="T18" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.report_rate_id IS '申告レートID';</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:20">
       <c r="A19" s="8">
+        <f>ROW()-4</f>
         <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K19" s="8"/>
-      <c r="M19" s="2" t="str">
+        <v>82</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q19" s="8"/>
+      <c r="S19" s="2" t="str">
         <f t="shared" si="2"/>
         <v>receipt_rate_id INTEGER,</v>
       </c>
-      <c r="N19" s="2" t="str">
+      <c r="T19" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.receipt_rate_id IS '受取基準レートID';</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:20">
       <c r="A20" s="8">
+        <f>ROW()-4</f>
         <v>16</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>82</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K20" s="8"/>
-      <c r="M20" s="2" t="str">
+        <v>81</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q20" s="8"/>
+      <c r="S20" s="2" t="str">
         <f t="shared" si="2"/>
         <v>created_at TIMESTAMP WITH TIME ZONE,</v>
       </c>
-      <c r="N20" s="2" t="str">
+      <c r="T20" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.created_at IS '作成日時';</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:20">
       <c r="A21" s="8">
+        <f>ROW()-4</f>
         <v>17</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>28</v>
@@ -3305,73 +4809,114 @@
         <v>10</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>82</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K21" s="8"/>
-      <c r="M21" s="2" t="str">
+        <v>81</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q21" s="8"/>
+      <c r="S21" s="2" t="str">
         <f t="shared" si="2"/>
         <v>created_by VARCHAR(10),</v>
       </c>
-      <c r="N21" s="2" t="str">
+      <c r="T21" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.created_by IS '作成者';</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:20">
       <c r="A22" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="O22" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P22" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q22" s="21" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A5:P21">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>A5=""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D21" xr:uid="{305AD96C-2873-44CC-A875-AB5A51CA1B5D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J21 L5:P21" xr:uid="{7E7E23AA-1D01-4D56-9D08-CDF4280EF219}">
+      <formula1>NOTNULL</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D5:D21" xr:uid="{070F58EC-56F6-4DF6-B935-6FF973C5BE03}">
       <formula1>型</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I21" xr:uid="{7E7E23AA-1D01-4D56-9D08-CDF4280EF219}">
-      <formula1>NOTNULL</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3379,12 +4924,1721 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9CC06F-9532-4095-AA2C-075DB2FCF0A7}">
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="C14:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="5.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.75" style="3" customWidth="1"/>
+    <col min="7" max="16" width="8.625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="37.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="2" style="2" customWidth="1"/>
+    <col min="19" max="19" width="32.375" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="14" t="str">
+        <f ca="1">_xlfn.XLOOKUP(C2, '01_tables'!D:D, '01_tables'!C:C)</f>
+        <v>運用会社</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="12"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16" t="str" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>mgmt_companies</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="85.5" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="2" t="str">
+        <f ca="1">"COMMENT ON TABLE dvl." &amp; C2 &amp; " IS '"&amp; C1 &amp; "';"</f>
+        <v>COMMENT ON TABLE dvl.mgmt_companies IS '運用会社';</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="8">
+        <f>ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q5" s="8"/>
+      <c r="S5" s="2" t="str">
+        <f>C5&amp;" "&amp;D5&amp;IF(E5="-","","("&amp;E5&amp;")")&amp;","</f>
+        <v>mgmt_company_id INTEGER,</v>
+      </c>
+      <c r="T5" s="2" t="str">
+        <f ca="1">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C5 &amp; " IS '"&amp; B5 &amp; "';"</f>
+        <v>COMMENT ON COLUMN dvl.mgmt_companies.mgmt_company_id IS '運用会社ID';</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="8">
+        <f>ROW()-4</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q6" s="8"/>
+      <c r="S6" s="2" t="str">
+        <f t="shared" ref="S6:S18" si="0">C6&amp;" "&amp;D6&amp;IF(E6="-","","("&amp;E6&amp;")")&amp;","</f>
+        <v>mgmt_company_class VARCHAR(2),</v>
+      </c>
+      <c r="T6" s="2" t="str">
+        <f t="shared" ref="T6:T18" ca="1" si="1">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C6 &amp; " IS '"&amp; B6 &amp; "';"</f>
+        <v>COMMENT ON COLUMN dvl.mgmt_companies.mgmt_company_class IS '運用会社区分';</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="8">
+        <f>ROW()-4</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="8"/>
+      <c r="S7" s="2" t="str">
+        <f t="shared" ref="S7" si="2">C7&amp;" "&amp;D7&amp;IF(E7="-","","("&amp;E7&amp;")")&amp;","</f>
+        <v>status VARCHAR(1),</v>
+      </c>
+      <c r="T7" s="2" t="str">
+        <f t="shared" ref="T7" ca="1" si="3">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C7 &amp; " IS '"&amp; B7 &amp; "';"</f>
+        <v>COMMENT ON COLUMN dvl.mgmt_companies.status IS 'ステータス';</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="8">
+        <f t="shared" ref="A8:A18" si="4">ROW()-4</f>
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" s="8"/>
+      <c r="S8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>bank_code VARCHAR(4),</v>
+      </c>
+      <c r="T8" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>COMMENT ON COLUMN dvl.mgmt_companies.bank_code IS '金融機関コード';</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="8">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q9" s="8"/>
+      <c r="S9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>branch_code VARCHAR(3),</v>
+      </c>
+      <c r="T9" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>COMMENT ON COLUMN dvl.mgmt_companies.branch_code IS '支店コード';</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="8">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="9">
+        <v>11</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="9">
+        <v>2</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" s="8"/>
+      <c r="S10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>swift_code VARCHAR(11),</v>
+      </c>
+      <c r="T10" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>COMMENT ON COLUMN dvl.mgmt_companies.swift_code IS 'SWIFTコード';</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="8">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="9">
+        <v>100</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="S11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name VARCHAR(100),</v>
+      </c>
+      <c r="T11" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>COMMENT ON COLUMN dvl.mgmt_companies.company_name IS '会社名';</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="8">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="9">
+        <v>100</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q12" s="8"/>
+      <c r="S12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name_kana VARCHAR(100),</v>
+      </c>
+      <c r="T12" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>COMMENT ON COLUMN dvl.mgmt_companies.company_name_kana IS '会社名カナ';</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="8">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="9">
+        <v>100</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q13" s="8"/>
+      <c r="S13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name_en VARCHAR(100),</v>
+      </c>
+      <c r="T13" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>COMMENT ON COLUMN dvl.mgmt_companies.company_name_en IS '会社名EN';</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="8">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="9">
+        <v>100</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="8"/>
+      <c r="S14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>branch_name VARCHAR(100),</v>
+      </c>
+      <c r="T14" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>COMMENT ON COLUMN dvl.mgmt_companies.branch_name IS '支店名';</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="8">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="9">
+        <v>100</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q15" s="8"/>
+      <c r="S15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>branch_name_kana VARCHAR(100),</v>
+      </c>
+      <c r="T15" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>COMMENT ON COLUMN dvl.mgmt_companies.branch_name_kana IS '支店名カナ';</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="8">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="9">
+        <v>100</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q16" s="8"/>
+      <c r="S16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>branch_name_en VARCHAR(100),</v>
+      </c>
+      <c r="T16" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>COMMENT ON COLUMN dvl.mgmt_companies.branch_name_en IS '支店名EN';</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="8">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" s="8"/>
+      <c r="S17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>updated_at TIMESTAMP WITH TIME ZONE,</v>
+      </c>
+      <c r="T17" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>COMMENT ON COLUMN dvl.mgmt_companies.updated_at IS '更新日時';</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="8">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="9">
+        <v>10</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q18" s="8"/>
+      <c r="S18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>updated_by VARCHAR(10),</v>
+      </c>
+      <c r="T18" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>COMMENT ON COLUMN dvl.mgmt_companies.updated_by IS '更新者';</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P19" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q19" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A17:C18 A5:P16">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>A5=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:P18">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>D17=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J7 J11:J13 J17:J18 L5:P18" xr:uid="{D9910BCA-3CB0-406A-A129-F81207B5B340}">
+      <formula1>NOTNULL</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D5:D18" xr:uid="{85678261-4170-43EF-AD9E-61879584BA13}">
+      <formula1>型</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566E03C6-EB7B-4C84-B623-E6AF20DE4162}">
+  <dimension ref="A1:T13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="5.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.75" style="3" customWidth="1"/>
+    <col min="7" max="16" width="8.625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="37.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="2" style="2" customWidth="1"/>
+    <col min="19" max="19" width="32.375" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="14" t="str">
+        <f ca="1">_xlfn.XLOOKUP(C2, '01_tables'!D:D, '01_tables'!C:C)</f>
+        <v>資産</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="12"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16" t="str" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>assets</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="85.5" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="2" t="str">
+        <f ca="1">"COMMENT ON TABLE dvl." &amp; C2 &amp; " IS '"&amp; C1 &amp; "';"</f>
+        <v>COMMENT ON TABLE dvl.assets IS '資産';</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="8">
+        <f>ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q5" s="8"/>
+      <c r="S5" s="2" t="str">
+        <f>C5&amp;" "&amp;D5&amp;IF(E5="-","","("&amp;E5&amp;")")&amp;","</f>
+        <v>asset_id SERIAL,</v>
+      </c>
+      <c r="T5" s="2" t="str">
+        <f ca="1">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C5 &amp; " IS '"&amp; B5 &amp; "';"</f>
+        <v>COMMENT ON COLUMN dvl.assets.asset_id IS '資産ID';</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="8">
+        <f t="shared" ref="A6:A12" si="0">ROW()-4</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q6" s="8"/>
+      <c r="S6" s="2" t="str">
+        <f t="shared" ref="S6:S12" si="1">C6&amp;" "&amp;D6&amp;IF(E6="-","","("&amp;E6&amp;")")&amp;","</f>
+        <v>base_date DATE,</v>
+      </c>
+      <c r="T6" s="2" t="str">
+        <f t="shared" ref="T6:T12" ca="1" si="2">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C6 &amp; " IS '"&amp; B6 &amp; "';"</f>
+        <v>COMMENT ON COLUMN dvl.assets.base_date IS '基準年月';</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="9">
+        <v>4</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="8"/>
+      <c r="S7" s="2" t="str">
+        <f t="shared" ref="S7:S11" si="3">C7&amp;" "&amp;D7&amp;IF(E7="-","","("&amp;E7&amp;")")&amp;","</f>
+        <v>asset_liab_type VARCHAR(4),</v>
+      </c>
+      <c r="T7" s="2" t="str">
+        <f t="shared" ref="T7:T11" ca="1" si="4">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C7 &amp; " IS '"&amp; B7 &amp; "';"</f>
+        <v>COMMENT ON COLUMN dvl.assets.asset_liab_type IS '資産負債区分';</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" s="8"/>
+      <c r="S8" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>asset_class VARCHAR(4),</v>
+      </c>
+      <c r="T8" s="2" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>COMMENT ON COLUMN dvl.assets.asset_class IS '資産クラス';</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q9" s="8"/>
+      <c r="S9" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>owner_id INTEGER,</v>
+      </c>
+      <c r="T9" s="2" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>COMMENT ON COLUMN dvl.assets.owner_id IS '所有者ID';</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" s="8"/>
+      <c r="S10" s="2" t="str">
+        <f>C10&amp;" "&amp;D10&amp;IF(E10="-","","("&amp;E10&amp;")")&amp;","</f>
+        <v>mgmt_company_id INTEGER,</v>
+      </c>
+      <c r="T10" s="2" t="str">
+        <f ca="1">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C10 &amp; " IS '"&amp; B10 &amp; "';"</f>
+        <v>COMMENT ON COLUMN dvl.assets.mgmt_company_id IS '運用会社ID';</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="9">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="S11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>amount NUMERIC(10),</v>
+      </c>
+      <c r="T11" s="2" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>COMMENT ON COLUMN dvl.assets.amount IS '金額';</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q12" s="8"/>
+      <c r="S12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>remarks VARCHAR(1000),</v>
+      </c>
+      <c r="T12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>COMMENT ON COLUMN dvl.assets.remarks IS '備考';</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A5:P12">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>A5=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J12 L5:P12" xr:uid="{05B06557-5DD3-4DE8-8C99-2EB0FA789384}">
+      <formula1>NOTNULL</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D5:D12" xr:uid="{19BEB8EB-F320-41A6-A148-050663F8DABA}">
+      <formula1>型</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1A4273-09CB-4798-AB63-166513262A3B}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C13" sqref="B13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3398,7 +6652,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -3410,7 +6664,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3418,12 +6672,12 @@
         <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3438,24 +6692,26 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
     </row>

--- a/docs/20_database/db_objects.xlsx
+++ b/docs/20_database/db_objects.xlsx
@@ -8,22 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\dvlife\dvlife-api\docs\20_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF710628-35E4-4BC2-A47D-AA75DB1FDB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5085A8-8BAD-4A89-B9F4-91623F56809B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="1170" windowWidth="23475" windowHeight="15150" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29655" yWindow="990" windowWidth="23475" windowHeight="15150" tabRatio="840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="01_tables" sheetId="1" r:id="rId1"/>
-    <sheet name="owners" sheetId="10" r:id="rId2"/>
-    <sheet name="stocks" sheetId="7" r:id="rId3"/>
-    <sheet name="exchange_rates" sheetId="5" r:id="rId4"/>
-    <sheet name="dividend_incomes" sheetId="6" r:id="rId5"/>
-    <sheet name="mgmt_companies" sheetId="9" r:id="rId6"/>
-    <sheet name="assets" sheetId="8" r:id="rId7"/>
-    <sheet name="__codes__" sheetId="4" r:id="rId8"/>
+    <sheet name="__codes__" sheetId="4" r:id="rId1"/>
+    <sheet name="01_tables" sheetId="1" r:id="rId2"/>
+    <sheet name="owners" sheetId="10" r:id="rId3"/>
+    <sheet name="stocks" sheetId="7" r:id="rId4"/>
+    <sheet name="exchange_rates" sheetId="5" r:id="rId5"/>
+    <sheet name="dividend_incomes" sheetId="6" r:id="rId6"/>
+    <sheet name="mgmt_companies" sheetId="9" r:id="rId7"/>
+    <sheet name="assets" sheetId="8" r:id="rId8"/>
+    <sheet name="accounting_items" sheetId="13" r:id="rId9"/>
+    <sheet name="expenses" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="NOTNULL">__codes__!$B$2:$B$5</definedName>
+    <definedName name="テーブルタイプ">__codes__!$C$2:$C$3</definedName>
     <definedName name="型">__codes__!$A$2:$A$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -69,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="206">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -768,17 +771,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>負債</t>
-    <rPh sb="0" eb="2">
-      <t>フサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>liablities</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>運用会社</t>
     <rPh sb="0" eb="4">
       <t>ウンヨウガイシャ</t>
@@ -1065,6 +1057,210 @@
   </si>
   <si>
     <t>DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支出</t>
+    <rPh sb="0" eb="2">
+      <t>シシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>テーブルタイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>expenses</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>expense_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支出ID</t>
+    <rPh sb="0" eb="2">
+      <t>シシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支出日</t>
+    <rPh sb="0" eb="2">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>expense_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勘定科目</t>
+    <rPh sb="0" eb="2">
+      <t>カンジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>accounting_items</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勘定科目ID</t>
+    <rPh sb="0" eb="2">
+      <t>カンジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収支区分</t>
+    <rPh sb="0" eb="2">
+      <t>シュウシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大分類コード</t>
+    <rPh sb="0" eb="3">
+      <t>ダイブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大分類名</t>
+    <rPh sb="0" eb="3">
+      <t>ダイブンルイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小分類コード</t>
+    <rPh sb="0" eb="3">
+      <t>ショウブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小分類名</t>
+    <rPh sb="0" eb="3">
+      <t>ショウブンルイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>class1_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>class1_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>class2_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IncomeOrExpense</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>income_or_expense_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>accounting_item_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソート順</t>
+    <rPh sb="3" eb="4">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sort_order</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>class2_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株・配当</t>
+    <rPh sb="0" eb="1">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資産管理</t>
+    <rPh sb="0" eb="2">
+      <t>シサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1308,7 +1504,35 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1639,189 +1863,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1A4273-09CB-4798-AB63-166513262A3B}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="4"/>
-    <col min="3" max="3" width="26.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="25.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="6.5" style="4"/>
+    <col min="1" max="3" width="20.75" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>4</v>
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="B4" s="4">
-        <f t="shared" ref="B4:B14" si="0">ROW()-3</f>
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
+      <c r="A4" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="4">
-        <f>ROW()-3</f>
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
+      <c r="A5" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
+      <c r="A6" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
+      <c r="A7" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
+      <c r="A8" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
+      <c r="A9" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
+      <c r="A10" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
+      <c r="A11" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDF28A0-2987-4357-B9D1-1A7206EB055D}">
-  <dimension ref="A1:T7"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBB2041-ABAE-42C3-BAF1-044D15567C95}">
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N20" sqref="A16:N20"/>
+      <selection activeCell="Q33" sqref="C16:Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1845,8 +1987,8 @@
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="14" t="str">
-        <f ca="1">_xlfn.XLOOKUP(C2, '01_tables'!D:D, '01_tables'!C:C)</f>
-        <v>所有者</v>
+        <f ca="1">_xlfn.XLOOKUP(C2, '01_tables'!E:E, '01_tables'!D:D)</f>
+        <v>支出</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -1854,7 +1996,7 @@
       <c r="B2" s="15"/>
       <c r="C2" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>owners</v>
+        <v>expenses</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="85.5" customHeight="1">
@@ -1904,7 +2046,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>44</v>
@@ -1913,26 +2055,26 @@
         <v>45</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="T4" s="2" t="str">
         <f ca="1">"COMMENT ON TABLE dvl." &amp; C2 &amp; " IS '"&amp; C1 &amp; "';"</f>
-        <v>COMMENT ON TABLE dvl.owners IS '所有者';</v>
+        <v>COMMENT ON TABLE dvl.expenses IS '支出';</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1941,10 +2083,781 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q5" s="8"/>
+      <c r="S5" s="2" t="str">
+        <f>C5&amp;" "&amp;D5&amp;IF(E5="-","","("&amp;E5&amp;")")&amp;","</f>
+        <v>expense_id SERIAL,</v>
+      </c>
+      <c r="T5" s="2" t="str">
+        <f ca="1">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C5 &amp; " IS '"&amp; B5 &amp; "';"</f>
+        <v>COMMENT ON COLUMN dvl.expenses.expense_id IS '支出ID';</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="8">
+        <f t="shared" ref="A6:A10" si="0">ROW()-4</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q6" s="8"/>
+      <c r="S6" s="2" t="str">
+        <f t="shared" ref="S6" si="1">C6&amp;" "&amp;D6&amp;IF(E6="-","","("&amp;E6&amp;")")&amp;","</f>
+        <v>expense_date DATE,</v>
+      </c>
+      <c r="T6" s="2" t="str">
+        <f t="shared" ref="T6" ca="1" si="2">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C6 &amp; " IS '"&amp; B6 &amp; "';"</f>
+        <v>COMMENT ON COLUMN dvl.expenses.expense_date IS '支出日';</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="8"/>
+      <c r="S7" s="2" t="str">
+        <f t="shared" ref="S7:S10" si="3">C7&amp;" "&amp;D7&amp;IF(E7="-","","("&amp;E7&amp;")")&amp;","</f>
+        <v>accounting_item_id INTEGER,</v>
+      </c>
+      <c r="T7" s="2" t="str">
+        <f t="shared" ref="T7:T10" ca="1" si="4">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C7 &amp; " IS '"&amp; B7 &amp; "';"</f>
+        <v>COMMENT ON COLUMN dvl.expenses.accounting_item_id IS '勘定科目ID';</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9">
+        <v>200</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" s="8"/>
+      <c r="S8" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>description VARCHAR(200),</v>
+      </c>
+      <c r="T8" s="2" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>COMMENT ON COLUMN dvl.expenses.description IS '内容';</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="9">
+        <v>10</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q9" s="8"/>
+      <c r="S9" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>amount NUMERIC(10),</v>
+      </c>
+      <c r="T9" s="2" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>COMMENT ON COLUMN dvl.expenses.amount IS '金額';</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" s="8"/>
+      <c r="S10" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>remarks VARCHAR(1000),</v>
+      </c>
+      <c r="T10" s="2" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>COMMENT ON COLUMN dvl.expenses.remarks IS '備考';</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B7 D7:E7 B8:E10 A5:P5 F7:P10 B6:P6 A6:A10">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>A5=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>C7=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D5:D10" xr:uid="{B38C1D79-CF4F-41BF-ADB3-396B013596A0}">
+      <formula1>型</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J10 L5:P10" xr:uid="{49192E6A-6BDB-4F47-9404-74FC0081082E}">
+      <formula1>NOTNULL</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="2.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="4"/>
+    <col min="3" max="3" width="14.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="6.5" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="4">
+        <f t="shared" ref="B4:B13" si="0">ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>168</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="4">
+        <f>ROW()-3</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F30" xr:uid="{DF019345-D0BF-416B-9400-8BC4AC08D4D9}">
+      <formula1>テーブルタイプ</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDF28A0-2987-4357-B9D1-1A7206EB055D}">
+  <dimension ref="A1:T7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="5.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.75" style="3" customWidth="1"/>
+    <col min="7" max="16" width="8.625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="37.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="2" style="2" customWidth="1"/>
+    <col min="19" max="19" width="32.375" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="14" t="str">
+        <f ca="1">_xlfn.XLOOKUP(C2, '01_tables'!E:E, '01_tables'!D:D)</f>
+        <v>所有者</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="12"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16" t="str" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>owners</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="85.5" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="2" t="str">
+        <f ca="1">"COMMENT ON TABLE dvl." &amp; C2 &amp; " IS '"&amp; C1 &amp; "';"</f>
+        <v>COMMENT ON TABLE dvl.owners IS '所有者';</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="8">
+        <f>ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>166</v>
+      </c>
       <c r="C5" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>29</v>
@@ -2001,10 +2914,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>28</v>
@@ -2111,7 +3024,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A5:P6">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>A5=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2128,7 +3041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06DF27F-DF8F-4489-B51B-478285E1F251}">
   <dimension ref="A1:T20"/>
   <sheetViews>
@@ -2158,7 +3071,7 @@
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="14" t="str">
-        <f ca="1">_xlfn.XLOOKUP(C2, '01_tables'!D:D, '01_tables'!C:C)</f>
+        <f ca="1">_xlfn.XLOOKUP(C2, '01_tables'!E:E, '01_tables'!D:D)</f>
         <v>銘柄</v>
       </c>
     </row>
@@ -2217,7 +3130,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>44</v>
@@ -2226,19 +3139,19 @@
         <v>45</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
@@ -3204,7 +4117,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A5:P19">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>A5=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3221,12 +4134,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7047A089-34A4-4056-B606-481619A3BAC7}">
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3250,7 +4163,7 @@
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="14" t="str">
-        <f>_xlfn.XLOOKUP(C2, '01_tables'!D:D, '01_tables'!C:C)</f>
+        <f>_xlfn.XLOOKUP(C2, '01_tables'!E:E, '01_tables'!D:D)</f>
         <v>為替レート</v>
       </c>
     </row>
@@ -3308,7 +4221,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>44</v>
@@ -3317,19 +4230,19 @@
         <v>45</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
@@ -3695,7 +4608,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A5:P9">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>A5=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3712,7 +4625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF91F076-32FE-4EE8-902C-48F9F973E49E}">
   <dimension ref="A1:T22"/>
   <sheetViews>
@@ -3741,7 +4654,7 @@
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="14" t="str">
-        <f ca="1">_xlfn.XLOOKUP(C2, '01_tables'!D:D, '01_tables'!C:C)</f>
+        <f ca="1">_xlfn.XLOOKUP(C2, '01_tables'!E:E, '01_tables'!D:D)</f>
         <v>配当収入</v>
       </c>
     </row>
@@ -3800,7 +4713,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>44</v>
@@ -3809,19 +4722,19 @@
         <v>45</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
@@ -3833,7 +4746,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="8">
-        <f>ROW()-4</f>
+        <f t="shared" ref="A5:A21" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -3893,7 +4806,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="8">
-        <f>ROW()-4</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -3953,7 +4866,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="8">
-        <f>ROW()-4</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -4003,17 +4916,17 @@
       </c>
       <c r="Q7" s="8"/>
       <c r="S7" s="2" t="str">
-        <f t="shared" ref="S7:S10" si="0">C7&amp;" "&amp;D7&amp;IF(E7="-","","("&amp;E7&amp;")")&amp;","</f>
+        <f t="shared" ref="S7:S10" si="1">C7&amp;" "&amp;D7&amp;IF(E7="-","","("&amp;E7&amp;")")&amp;","</f>
         <v>receipt_date TIMESTAMP WITH TIME ZONE,</v>
       </c>
       <c r="T7" s="2" t="str">
-        <f t="shared" ref="T7:T10" ca="1" si="1">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C7 &amp; " IS '"&amp; B7 &amp; "';"</f>
+        <f t="shared" ref="T7:T10" ca="1" si="2">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C7 &amp; " IS '"&amp; B7 &amp; "';"</f>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.receipt_date IS '受取日';</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="8">
-        <f>ROW()-4</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -4063,17 +4976,17 @@
       </c>
       <c r="Q8" s="8"/>
       <c r="S8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>receipt_amount NUMERIC(10),</v>
       </c>
       <c r="T8" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.receipt_amount IS '受取金額';</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="8">
-        <f>ROW()-4</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -4123,17 +5036,17 @@
       </c>
       <c r="Q9" s="8"/>
       <c r="S9" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>receipt_amount_f NUMERIC(14,6),</v>
       </c>
       <c r="T9" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.receipt_amount_f IS '受取金額（外貨）';</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="8">
-        <f>ROW()-4</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -4183,17 +5096,17 @@
       </c>
       <c r="Q10" s="8"/>
       <c r="S10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>div_unit NUMERIC(14,6),</v>
       </c>
       <c r="T10" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.div_unit IS '1株配当額';</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="8">
-        <f>ROW()-4</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -4243,17 +5156,17 @@
       </c>
       <c r="Q11" s="8"/>
       <c r="S11" s="2" t="str">
-        <f t="shared" ref="S11:S21" si="2">C11&amp;" "&amp;D11&amp;IF(E11="-","","("&amp;E11&amp;")")&amp;","</f>
+        <f t="shared" ref="S11:S21" si="3">C11&amp;" "&amp;D11&amp;IF(E11="-","","("&amp;E11&amp;")")&amp;","</f>
         <v>quantity INTEGER,</v>
       </c>
       <c r="T11" s="2" t="str">
-        <f t="shared" ref="T11:T21" ca="1" si="3">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C11 &amp; " IS '"&amp; B11 &amp; "';"</f>
+        <f t="shared" ref="T11:T21" ca="1" si="4">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C11 &amp; " IS '"&amp; B11 &amp; "';"</f>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.quantity IS '保有数';</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="8">
-        <f>ROW()-4</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -4303,17 +5216,17 @@
       </c>
       <c r="Q12" s="8"/>
       <c r="S12" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>div_amount NUMERIC(10),</v>
       </c>
       <c r="T12" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.div_amount IS '配当金額';</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="8">
-        <f>ROW()-4</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -4363,17 +5276,17 @@
       </c>
       <c r="Q13" s="8"/>
       <c r="S13" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>div_amount_f NUMERIC(14,6),</v>
       </c>
       <c r="T13" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.div_amount_f IS '配当金額（外貨）';</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="8">
-        <f>ROW()-4</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -4423,17 +5336,17 @@
       </c>
       <c r="Q14" s="8"/>
       <c r="S14" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>income_tax NUMERIC(10),</v>
       </c>
       <c r="T14" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.income_tax IS '所得税';</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="8">
-        <f>ROW()-4</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -4483,17 +5396,17 @@
       </c>
       <c r="Q15" s="8"/>
       <c r="S15" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>local_tax NUMERIC(10),</v>
       </c>
       <c r="T15" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.local_tax IS '地方税';</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="8">
-        <f>ROW()-4</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -4543,17 +5456,17 @@
       </c>
       <c r="Q16" s="8"/>
       <c r="S16" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>foreign_tax NUMERIC(10),</v>
       </c>
       <c r="T16" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.foreign_tax IS '外国源泉徴収税額';</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="8">
-        <f>ROW()-4</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -4603,17 +5516,17 @@
       </c>
       <c r="Q17" s="8"/>
       <c r="S17" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>foreign_tax_f NUMERIC(14,6),</v>
       </c>
       <c r="T17" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.foreign_tax_f IS '外国源泉徴収税額（外貨）';</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="8">
-        <f>ROW()-4</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -4663,17 +5576,17 @@
       </c>
       <c r="Q18" s="8"/>
       <c r="S18" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>report_rate_id INTEGER,</v>
       </c>
       <c r="T18" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.report_rate_id IS '申告レートID';</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="8">
-        <f>ROW()-4</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -4723,17 +5636,17 @@
       </c>
       <c r="Q19" s="8"/>
       <c r="S19" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>receipt_rate_id INTEGER,</v>
       </c>
       <c r="T19" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.receipt_rate_id IS '受取基準レートID';</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="8">
-        <f>ROW()-4</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -4783,17 +5696,17 @@
       </c>
       <c r="Q20" s="8"/>
       <c r="S20" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>created_at TIMESTAMP WITH TIME ZONE,</v>
       </c>
       <c r="T20" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.created_at IS '作成日時';</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="8">
-        <f>ROW()-4</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -4843,11 +5756,11 @@
       </c>
       <c r="Q21" s="8"/>
       <c r="S21" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>created_by VARCHAR(10),</v>
       </c>
       <c r="T21" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>COMMENT ON COLUMN dvl.dividend_incomes.created_by IS '作成者';</v>
       </c>
     </row>
@@ -4907,7 +5820,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A5:P21">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>A5=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4924,12 +5837,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9CC06F-9532-4095-AA2C-075DB2FCF0A7}">
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="C14:F14"/>
+      <selection activeCell="B17" sqref="B17:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4953,7 +5866,7 @@
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="14" t="str">
-        <f ca="1">_xlfn.XLOOKUP(C2, '01_tables'!D:D, '01_tables'!C:C)</f>
+        <f ca="1">_xlfn.XLOOKUP(C2, '01_tables'!E:E, '01_tables'!D:D)</f>
         <v>運用会社</v>
       </c>
     </row>
@@ -5012,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>44</v>
@@ -5021,19 +5934,19 @@
         <v>45</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
@@ -5049,10 +5962,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>29</v>
@@ -5109,10 +6022,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>28</v>
@@ -5121,7 +6034,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>82</v>
@@ -5181,7 +6094,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>82</v>
@@ -5229,10 +6142,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>28</v>
@@ -5289,10 +6202,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>28</v>
@@ -5349,10 +6262,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>148</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>28</v>
@@ -5409,10 +6322,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>28</v>
@@ -5469,10 +6382,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>28</v>
@@ -5529,10 +6442,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>28</v>
@@ -5589,10 +6502,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>28</v>
@@ -5649,10 +6562,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>28</v>
@@ -5709,10 +6622,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>28</v>
@@ -5938,14 +6851,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A17:C18 A5:P16">
-    <cfRule type="expression" dxfId="2" priority="2">
+  <conditionalFormatting sqref="A5:P18">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>A5=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:P18">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>D17=""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -5961,12 +6869,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566E03C6-EB7B-4C84-B623-E6AF20DE4162}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5990,7 +6898,7 @@
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="14" t="str">
-        <f ca="1">_xlfn.XLOOKUP(C2, '01_tables'!D:D, '01_tables'!C:C)</f>
+        <f ca="1">_xlfn.XLOOKUP(C2, '01_tables'!E:E, '01_tables'!D:D)</f>
         <v>資産</v>
       </c>
     </row>
@@ -6049,7 +6957,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>44</v>
@@ -6058,19 +6966,19 @@
         <v>45</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
@@ -6086,10 +6994,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>38</v>
@@ -6146,13 +7054,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>82</v>
@@ -6206,10 +7114,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>28</v>
@@ -6218,7 +7126,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>82</v>
@@ -6266,10 +7174,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>28</v>
@@ -6278,7 +7186,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>82</v>
@@ -6326,10 +7234,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>29</v>
@@ -6386,10 +7294,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>29</v>
@@ -6446,10 +7354,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>30</v>
@@ -6506,10 +7414,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>28</v>
@@ -6616,11 +7524,11 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A5:P12">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>A5=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J12 L5:P12" xr:uid="{05B06557-5DD3-4DE8-8C99-2EB0FA789384}">
       <formula1>NOTNULL</formula1>
     </dataValidation>
@@ -6633,90 +7541,744 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1A4273-09CB-4798-AB63-166513262A3B}">
-  <dimension ref="A1:F11"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE29706E-3D99-40EF-8D87-C9FC72874102}">
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="B13:C14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="5.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.75" style="3" customWidth="1"/>
+    <col min="7" max="16" width="8.625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="37.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="2" style="2" customWidth="1"/>
+    <col min="19" max="19" width="32.375" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="14" t="str">
+        <f ca="1">_xlfn.XLOOKUP(C2, '01_tables'!E:E, '01_tables'!D:D)</f>
+        <v>勘定科目</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="12"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16" t="str" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>accounting_items</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="85.5" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="K4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="2" t="str">
+        <f ca="1">"COMMENT ON TABLE dvl." &amp; C2 &amp; " IS '"&amp; C1 &amp; "';"</f>
+        <v>COMMENT ON TABLE dvl.accounting_items IS '勘定科目';</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="8">
+        <f>ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
+      <c r="K5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q5" s="8"/>
+      <c r="S5" s="2" t="str">
+        <f>C5&amp;" "&amp;D5&amp;IF(E5="-","","("&amp;E5&amp;")")&amp;","</f>
+        <v>accounting_item_id INTEGER,</v>
+      </c>
+      <c r="T5" s="2" t="str">
+        <f ca="1">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C5 &amp; " IS '"&amp; B5 &amp; "';"</f>
+        <v>COMMENT ON COLUMN dvl.accounting_items.accounting_item_id IS '勘定科目ID';</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="8">
+        <f t="shared" ref="A6:A13" si="0">ROW()-4</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q6" s="8"/>
+      <c r="S6" s="2" t="str">
+        <f t="shared" ref="S6:S13" si="1">C6&amp;" "&amp;D6&amp;IF(E6="-","","("&amp;E6&amp;")")&amp;","</f>
+        <v>income_or_expense_type VARCHAR(2),</v>
+      </c>
+      <c r="T6" s="2" t="str">
+        <f t="shared" ref="T6:T13" ca="1" si="2">"COMMENT ON COLUMN dvl." &amp; $C$2 &amp;"." &amp; C6 &amp; " IS '"&amp; B6 &amp; "';"</f>
+        <v>COMMENT ON COLUMN dvl.accounting_items.income_or_expense_type IS '収支区分';</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="9">
+        <v>3</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="8"/>
+      <c r="S7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>class1_code VARCHAR(3),</v>
+      </c>
+      <c r="T7" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>COMMENT ON COLUMN dvl.accounting_items.class1_code IS '大分類コード';</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9">
+        <v>100</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="9">
+        <v>2</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" s="8"/>
+      <c r="S8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>class1_name VARCHAR(100),</v>
+      </c>
+      <c r="T8" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>COMMENT ON COLUMN dvl.accounting_items.class1_name IS '大分類名';</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="9">
+        <v>6</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q9" s="8"/>
+      <c r="S9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>class2_code VARCHAR(6),</v>
+      </c>
+      <c r="T9" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>COMMENT ON COLUMN dvl.accounting_items.class2_code IS '小分類コード';</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="9">
+        <v>100</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="9">
+        <v>2</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" s="8"/>
+      <c r="S10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>class2_name VARCHAR(100),</v>
+      </c>
+      <c r="T10" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>COMMENT ON COLUMN dvl.accounting_items.class2_name IS '小分類名';</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="S11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>sort_order INTEGER,</v>
+      </c>
+      <c r="T11" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>COMMENT ON COLUMN dvl.accounting_items.sort_order IS 'ソート順';</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q12" s="8"/>
+      <c r="S12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>updated_at TIMESTAMP WITH TIME ZONE,</v>
+      </c>
+      <c r="T12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>COMMENT ON COLUMN dvl.accounting_items.updated_at IS '更新日時';</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>36</v>
+      <c r="E13" s="9">
+        <v>10</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q13" s="8"/>
+      <c r="S13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>updated_by VARCHAR(10),</v>
+      </c>
+      <c r="T13" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>COMMENT ON COLUMN dvl.accounting_items.updated_by IS '更新者';</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="21" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A5:P5 A7:E10 G7:G10 A6:G6 H6:P10 A5:A13 A11:D11">
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>A5=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G10 B12:P13 E11:P11">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>B6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:F10">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>F7=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:P13 J5:J13" xr:uid="{54972188-FB5D-472D-AF1A-A3351502C7CE}">
+      <formula1>NOTNULL</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D5:D13" xr:uid="{9B602A80-265D-4008-8A66-6A9AB405BA1A}">
+      <formula1>型</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/docs/20_database/db_objects.xlsx
+++ b/docs/20_database/db_objects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\dvlife\dvlife-api\docs\20_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5085A8-8BAD-4A89-B9F4-91623F56809B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0B0B72-DB83-4A7F-8643-7E5C051403B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29655" yWindow="990" windowWidth="23475" windowHeight="15150" tabRatio="840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="__codes__" sheetId="4" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="208">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1260,6 +1260,26 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JPYに対する交換レートを記録する。</t>
+    <rPh sb="4" eb="5">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ISO4217 通貨コード</t>
+    <rPh sb="8" eb="10">
+      <t>ツウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1504,14 +1524,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -2492,14 +2505,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B7 D7:E7 B8:E10 A5:P5 F7:P10 B6:P6 A6:A10">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A5:P10">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>A5=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>C7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -2520,7 +2528,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="14.25"/>
@@ -3024,7 +3032,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A5:P6">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>A5=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4117,7 +4125,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A5:P19">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>A5=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4138,8 +4146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7047A089-34A4-4056-B606-481619A3BAC7}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4178,7 +4186,9 @@
       <c r="A3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="17" t="s">
+        <v>206</v>
+      </c>
       <c r="C3" s="18"/>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -4390,7 +4400,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>82</v>
@@ -4422,7 +4432,9 @@
       <c r="P7" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q7" s="8"/>
+      <c r="Q7" s="8" t="s">
+        <v>207</v>
+      </c>
       <c r="S7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>currency VARCHAR(3),</v>
@@ -4608,7 +4620,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A5:P9">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>A5=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5820,7 +5832,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A5:P21">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>A5=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6852,7 +6864,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A5:P18">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>A5=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7524,7 +7536,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A5:P12">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>A5=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7545,8 +7557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE29706E-3D99-40EF-8D87-C9FC72874102}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8255,19 +8267,19 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A5:P5 A7:E10 G7:G10 A6:G6 H6:P10 A5:A13 A11:D11">
-    <cfRule type="expression" dxfId="4" priority="3">
+  <conditionalFormatting sqref="A7:F10">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>A7=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:P5 A5:A13 A6:G6">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>A5=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G10 B12:P13 E11:P11">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>B6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F10">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>F7=""</formula>
+  <conditionalFormatting sqref="G6:P10 A11:P11 B12:P13">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>A6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
